--- a/data/data_siswa_updated.xlsx
+++ b/data/data_siswa_updated.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,165 +465,175 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Tempat Lahir</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal Lahir</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Tempat, Tanggal Lahir</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Jenis Kelamin</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Agama</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Status dalam Keluarga</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Anak ke</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Alamat Siswa</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Koordinat Bujur</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Koordinat Lintang</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Nomor Telepon/ hp siswa</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Sekolah Asal</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Tinggi Badan </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Berat Badan</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Nama Ayah</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>NIK Ayah</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tempat, Tanggal Lahir Ayah</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Agama Ayah</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Alamat Ayah</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Nomor Telepon/ HP Ayah</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Pekerjaan Ayah</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Instansi Tempat Bekerja</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Akumulasi Gaji Ayah dan Ibu</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Pendidikan Terakhir ayah</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nama Ibu</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>NIK Ibu</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Tempat, Tanggal Lahir Ibu</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Agama Ibu</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Alamat Ibu</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>No Tlp/ HP Ibu</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Pekerjaan Ibu</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Instansi Tempat Bekerja Ibu</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Pendidikan Terakhir Ibu</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Jarak Rumah - Sekolah BI</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jarak Rumah - Sekolah TU</t>
         </is>
@@ -628,34 +642,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alip Usman</t>
+          <t>Adifa Apriliani Nanda Sari</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>212207099</v>
+        <v>122001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3204064204100005</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" s="2" t="n">
+        <v>40270</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Deden Sunandar</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -665,7 +701,11 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Septiani Nurlaela Sari</t>
+        </is>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -674,38 +714,62 @@
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asep Komara</t>
+          <t xml:space="preserve">Anggi Octarina </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>212207100</v>
+        <v>122002</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3204066210090007</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" s="2" t="n">
+        <v>40108</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Asep</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -715,7 +779,11 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Nunung</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -724,38 +792,62 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dika Permana</t>
+          <t>Arsyid Akbar Alfakhrizi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>212207101</v>
+        <v>122003</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3215060302100002</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" s="2" t="n">
+        <v>40212</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SDN 02 Karawang</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Halimi</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -765,7 +857,11 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Nina Marlina</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -774,38 +870,62 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gema Azuayini Ginanjar</t>
+          <t xml:space="preserve">Asep Hamjoni </t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>212207102</v>
+        <v>122004</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3204060109090001</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -815,7 +935,11 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Aam</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -824,38 +948,62 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indah Sondari</t>
+          <t>Cica Anggraeni</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>212207103</v>
+        <v>122005</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3204064203100002</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" s="2" t="n">
+        <v>40239</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SDN 01 Panyandaan</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Heru</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -865,7 +1013,11 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Yeni Anggraeni</t>
+        </is>
+      </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -874,38 +1026,62 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isma Dwi Yanti</t>
+          <t>Cici Anggraeni</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>212207104</v>
+        <v>122006</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3204064203100003</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" s="2" t="n">
+        <v>40239</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SDN 01 Panyandaan</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Heru</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -915,7 +1091,11 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Yeni Anggraeni</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
@@ -924,38 +1104,62 @@
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mandala</t>
+          <t>Cindy Hidayah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>212207105</v>
+        <v>122007</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3204065711090004</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" s="2" t="n">
+        <v>40134</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Kutep Uli</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -965,7 +1169,11 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Susi Susilawati</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
@@ -974,38 +1182,62 @@
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Muhamad Padli</t>
+          <t>Dea Auni</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>212207106</v>
+        <v>122008</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3204066405100001</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="H9" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deni </t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1015,7 +1247,11 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Rohayati</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
@@ -1024,38 +1260,62 @@
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Muhammad Irsyadun Aufa</t>
+          <t>Depi Novianti</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>212207107</v>
+        <v>122009</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3204065004100002</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" s="2" t="n">
+        <v>40278</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Anang</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -1065,7 +1325,11 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Ina Maryana</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
@@ -1074,38 +1338,62 @@
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Muhammad Rafif Ihsan Muttaqin</t>
+          <t>Desi Kartika</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>212207108</v>
+        <v>122010</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3204064402100004</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" s="2" t="n">
+        <v>40213</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dede Sudiana</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1115,7 +1403,11 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Awang</t>
+        </is>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
@@ -1124,38 +1416,62 @@
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Muhammad Reffan Fathurrahman</t>
+          <t>Eka Septian</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>212207109</v>
+        <v>122011</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3204063009090002</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>40086</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Roni</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1165,7 +1481,11 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Siti Solihah</t>
+        </is>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
@@ -1174,38 +1494,62 @@
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Muhammad Tsabit Imani</t>
+          <t>Faizal Reja Abdullah</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>212207110</v>
+        <v>122012</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3203231907090002</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" s="2" t="n">
+        <v>40013</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SDN Buniasih</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Supiana</t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1215,7 +1559,11 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Imas Masriah</t>
+        </is>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
@@ -1224,38 +1572,62 @@
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mutia Azahra</t>
+          <t xml:space="preserve">Henggar Parikesit </t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>212207111</v>
+        <v>122013</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3204061402100005</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="H14" s="2" t="n">
+        <v>40223</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SDN 078 Sindang Sari</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Agus (Alm)</t>
+        </is>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -1265,7 +1637,11 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Tut Wuri Handayani</t>
+        </is>
+      </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
@@ -1274,38 +1650,62 @@
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nazrey Ilham Mulyana</t>
+          <t xml:space="preserve">Muhammad Hilal Abiyu Sahih </t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>212207112</v>
+        <v>122014</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3273241809090001</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" s="2" t="n">
+        <v>40074</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>SDN 009 Cikadut</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Erwin Aryanto</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -1315,7 +1715,11 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Atin Supriatin</t>
+        </is>
+      </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
@@ -1324,38 +1728,62 @@
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nur Yanti</t>
+          <t>Neneng Rita</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>212207113</v>
+        <v>122015</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3204065806090001</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" s="2" t="n">
+        <v>39982</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Priyatna</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -1365,7 +1793,11 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Yanti</t>
+        </is>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
@@ -1374,38 +1806,62 @@
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Radittia Putra Amarulloh</t>
+          <t>Nesa Rahmawati</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>212207114</v>
+        <v>122016</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3204067108090001</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" s="2" t="n">
+        <v>40056</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Iman</t>
+        </is>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -1415,7 +1871,11 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Maryani</t>
+        </is>
+      </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
@@ -1424,38 +1884,62 @@
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Reihan Wijaya</t>
+          <t>Niken Dwi Anjani</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>212207115</v>
+        <v>122017</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3204055612090003</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" s="2" t="n">
+        <v>40163</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SDN  Cicayur 01</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Deni</t>
+        </is>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -1465,7 +1949,11 @@
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Hani Pancawati</t>
+        </is>
+      </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
@@ -1474,38 +1962,62 @@
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Repi Herdian</t>
+          <t>Paramitha Rahayu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>212207116</v>
+        <v>122018</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3204066510090002</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" s="2" t="n">
+        <v>40111</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Kurdi Ependi</t>
+        </is>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -1515,7 +2027,11 @@
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Euis Wiwi</t>
+        </is>
+      </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
@@ -1524,38 +2040,62 @@
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rika Parida</t>
+          <t>Rafa Muhammad Rizqi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>212207117</v>
+        <v>122019</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3273231910090003</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" s="2" t="n">
+        <v>40105</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SDN 116 Cicaheum</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Zaenal Mutaqin</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
@@ -1565,7 +2105,11 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Yesi Mardiani</t>
+        </is>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
@@ -1574,38 +2118,62 @@
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rina Rahmayanti</t>
+          <t xml:space="preserve">Rangga Septiansyah </t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>212207118</v>
+        <v>122020</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3204062609090007</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" s="2" t="n">
+        <v>40082</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SDN 01 Panyandaan</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Andri Risbaya</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -1615,7 +2183,11 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Siti Saidah</t>
+        </is>
+      </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
@@ -1624,38 +2196,62 @@
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rohmana</t>
+          <t>Raniawati</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>212207119</v>
+        <v>122021</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>320464211090007</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" s="2" t="n">
+        <v>40119</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Ule Sulaeman</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -1665,7 +2261,11 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Tini</t>
+        </is>
+      </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
@@ -1674,38 +2274,62 @@
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rosmawati</t>
+          <t>Ricky Nugraha</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>212207120</v>
+        <v>122022</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3204061212100001</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" s="2" t="n">
+        <v>40221</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Ase</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -1715,7 +2339,11 @@
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Eneng Sumiyati</t>
+        </is>
+      </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
@@ -1724,38 +2352,62 @@
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Salsabila Meida</t>
+          <t xml:space="preserve">Riski </t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>212207122</v>
+        <v>122023</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3204341412080005</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" s="2" t="n">
+        <v>39796</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Suhanda</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -1765,7 +2417,11 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Siti Nurjanah</t>
+        </is>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
@@ -1774,38 +2430,62 @@
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Saskia Allipa</t>
+          <t>Rosita Nuraeni</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>212207121</v>
+        <v>122024</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3204066303100003</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" s="2" t="n">
+        <v>40260</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dadan</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -1815,7 +2495,11 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Enis</t>
+        </is>
+      </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
@@ -1824,38 +2508,62 @@
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Siti Nur Amalah</t>
+          <t>Salsa Amalia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>212207123</v>
+        <v>122025</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3204065511090004</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" s="2" t="n">
+        <v>40132</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Ruswanda</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -1865,7 +2573,11 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>A Wati</t>
+        </is>
+      </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
@@ -1874,38 +2586,62 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tini Nur Aeni</t>
+          <t xml:space="preserve">Teguh Firmansyah </t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>212207124</v>
+        <v>122026</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3204062203100003</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" s="2" t="n">
+        <v>40259</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>SDN  Mekar jaya</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Cecep Kustiawan</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -1915,7 +2651,11 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Iis Aisah</t>
+        </is>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
@@ -1924,38 +2664,62 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vicril Nurmulki</t>
+          <t>Zidni Qori Ramadhan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>212207125</v>
+        <v>122027</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>3204252708100002</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" s="2" t="n">
+        <v>40417</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>SDN Sawah Lega 2</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Yayan Cahyana</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -1965,7 +2729,11 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Teti Heryani</t>
+        </is>
+      </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
@@ -1974,38 +2742,68 @@
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wanda</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>Alip Usman</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Alip</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>212207126</v>
+        <v>121001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3204062910080003</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" s="2" t="n">
+        <v>39750</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Kp. Singkur RT 002 RW 015, Mekarmanik, Cimenyan, Kabupaten Bandung, 40196</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Yadi Mulyadi</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
@@ -2015,7 +2813,11 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Nani Rohaeni</t>
+        </is>
+      </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
@@ -2024,38 +2826,68 @@
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wandi</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>Asep Komara</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Asep</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>212207127</v>
+        <v>121002</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3204060106090005</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="H30" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 001 RW 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Engkos</t>
+        </is>
+      </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
@@ -2065,7 +2897,11 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Epon Komala</t>
+        </is>
+      </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
@@ -2074,38 +2910,68 @@
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yan Yan Sopian</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>Dika Permana</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dika</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>212207128</v>
+        <v>121003</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3204060502090001</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" s="2" t="n">
+        <v>39849</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 004 RW 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Apet</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
@@ -2115,7 +2981,11 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Dewi Kartini</t>
+        </is>
+      </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
@@ -2124,38 +2994,68 @@
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Agus Ahmad</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>Gema Azuayini Ginanjar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gema </t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v>202107092</v>
+        <v>121004</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>3204062606090001</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" s="2" t="n">
+        <v>39990</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 002 RW 010, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Uay Setiawan</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
@@ -2165,7 +3065,11 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Heni Suhaeni</t>
+        </is>
+      </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
@@ -2174,38 +3078,68 @@
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Angga Maulana</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>Indah Sondari</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Indah</t>
+        </is>
+      </c>
       <c r="C33" t="n">
-        <v>202107094</v>
+        <v>121005</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>3601196306080002</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" s="2" t="n">
+        <v>39622</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 002 RW 011, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>M. Nazar Efendi</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
@@ -2215,7 +3149,11 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Titin</t>
+        </is>
+      </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
@@ -2224,38 +3162,68 @@
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ayu Anggraeni</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>Isma Dwi Yanti</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isma </t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>202107096</v>
+        <v>121006</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3204066312080003</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" s="2" t="n">
+        <v>39805</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 002 RW 014, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Mina Hasan</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
@@ -2265,7 +3233,11 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Eulis Syahadah</t>
+        </is>
+      </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
@@ -2274,38 +3246,68 @@
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cucu Permana</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>Mandala</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mandala</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>202107097</v>
+        <v>121007</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3273262203090011</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" s="2" t="n">
+        <v>39894</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Jl. Marta No. 55 RT 001 RW 010, Cigending, Ujungberung, Kota Bandung</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SDN 106 Aji Tunggal Cijambe Kota Bandung</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Juju Juanda</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
@@ -2315,7 +3317,11 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Widaningsih S.</t>
+        </is>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
@@ -2324,38 +3330,68 @@
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dani Hidayat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>Muhamad Padli</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Padli</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>202107098</v>
+        <v>121008</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3204062312080001</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" s="2" t="n">
+        <v>39805</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Kp. Tareptep RT 001 RW 006, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>SDN Arcamanik 01</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dani Saepul Rohman (Alm)</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -2365,7 +3401,11 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Nengsih</t>
+        </is>
+      </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
@@ -2374,38 +3414,68 @@
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Deden Ali Zaelani</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>Muhammad Irsyadun Aufa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Isrsyad</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>202107099</v>
+        <v>121009</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>3204060409080002</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" s="2" t="n">
+        <v>39695</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Seke Alam RT 002 RW 008, Sindanglaya, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>SDN 106 Aji Tunggal Cijambe Kota Bandung</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Ajang Mahmudin</t>
+        </is>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -2415,7 +3485,11 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Titin Anggraeni</t>
+        </is>
+      </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
@@ -2424,38 +3498,68 @@
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Depi</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>Muhammad Rafif Ihsan Muttaqin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Afif</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>202107100</v>
+        <v>121010</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3273023108080007</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" s="2" t="n">
+        <v>39691</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Kubang Sari V No. 24 RT 002 RW 004 Sekeloa, Coblong, Kota Bandung</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SDN 173 Neglasari Kota Bandung</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Ahmad Mahpud</t>
+        </is>
+      </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
@@ -2465,7 +3569,11 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Sri Krismiati</t>
+        </is>
+      </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
@@ -2474,38 +3582,64 @@
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Elsa Silviani</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>Muhammad Reffan Fathurrahman</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Reffan</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>202107101</v>
+        <v>121011</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3204061302090003</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" s="2" t="n">
+        <v>39857</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Babakan RT 001 RW 001, Ciburial, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Solihin (Alm)</t>
+        </is>
+      </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
@@ -2515,7 +3649,11 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Hopiah</t>
+        </is>
+      </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
@@ -2524,38 +3662,68 @@
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hoerul Anwar</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>Muhammad Tsabit Imani</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tsabit</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>202107102</v>
+        <v>121012</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3273020601090001</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" s="2" t="n">
+        <v>39819</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Titimplik Dalam No. 36, RT 006 RW 003, Sadangserang, Coblong, Kota Bandung</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>SDN 173 Neglasari Kota Bandung</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Nugraha</t>
+        </is>
+      </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -2565,7 +3733,11 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Tuti Rohaeti</t>
+        </is>
+      </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
@@ -2574,38 +3746,68 @@
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Irvan Mardiansah</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>Mutia Azahra</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mutia</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>202107104</v>
+        <v>121013</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3204066207080003</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" s="2" t="n">
+        <v>39651</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Kp. Parabonan RT 001 RW 007, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Wawa</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -2615,7 +3817,11 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Neni Suharyati</t>
+        </is>
+      </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
@@ -2624,38 +3830,68 @@
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kanila Nopita</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Nazrey Ilham Mulyana</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nazrey</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>202107105</v>
+        <v>121014</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>3204062911080001</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" s="2" t="n">
+        <v>39781</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Kp. Cibentar RT 001 RW 009, Cikadut, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>SDN Cibentar</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Aten Mulyana</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
@@ -2665,7 +3901,11 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Ismayanti</t>
+        </is>
+      </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
@@ -2674,38 +3914,68 @@
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moh. Nur Asoka</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Nur Yanti</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nur</t>
+        </is>
+      </c>
       <c r="C43" t="n">
-        <v>202107106</v>
+        <v>121015</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3204064106090002</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 004 RW 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Tata</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
@@ -2715,7 +3985,11 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Ai Enas</t>
+        </is>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
@@ -2724,38 +3998,68 @@
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Muhamad Dimas Dwi Arifin</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>Radittia Putra Amarulloh</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Radit</t>
+        </is>
+      </c>
       <c r="C44" t="n">
-        <v>202107107</v>
+        <v>121016</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3206332412080002</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" s="2" t="n">
+        <v>39806</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Kp. Bunter RT 003 RW 005, Banyuresmi, Sukahening, Kabupaten Tasikmalaya</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SDN 3 Banyurasa, Kecamatan Sukahening</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Sarif Hidayat</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
@@ -2765,7 +4069,11 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Desi Nur</t>
+        </is>
+      </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
@@ -2774,38 +4082,68 @@
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Muhamad Krisna Mustopa</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>Reihan Wijaya</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Reihan</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>202107108</v>
+        <v>121017</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3204063112080000</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" s="2" t="n">
+        <v>39813</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 002 RW 010, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Ade Sopandi</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
@@ -2815,7 +4153,11 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Ai Anih</t>
+        </is>
+      </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
@@ -2824,38 +4166,68 @@
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Opik Saepul Rohman</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>Repi Herdian</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Repi</t>
+        </is>
+      </c>
       <c r="C46" t="n">
-        <v>202107109</v>
+        <v>121018</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3204060104090001</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="H46" s="2" t="n">
+        <v>39904</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 002 RW 008, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Enjang Tarya Hidayat</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
@@ -2865,7 +4237,11 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Oom</t>
+        </is>
+      </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
@@ -2874,38 +4250,68 @@
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pitri Yanti</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>Rika Parida</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rika</t>
+        </is>
+      </c>
       <c r="C47" t="n">
-        <v>202107110</v>
+        <v>121019</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>3204065303100000</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="H47" s="2" t="n">
+        <v>40160</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 001 RW 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Feri Dedi Susanto</t>
+        </is>
+      </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
@@ -2915,7 +4321,11 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Fitriah Hartini</t>
+        </is>
+      </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
@@ -2924,38 +4334,68 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rahma Tri Wulan</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>Rina Rahmayanti</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rina</t>
+        </is>
+      </c>
       <c r="C48" t="n">
-        <v>202107111</v>
+        <v>121020</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3204065404080001</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" s="2" t="n">
+        <v>39552</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 004 RW 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Odih</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -2965,7 +4405,11 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Eutik</t>
+        </is>
+      </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
@@ -2974,38 +4418,68 @@
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Reva Nur Afriani</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>Rohmana</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rohmana</t>
+        </is>
+      </c>
       <c r="C49" t="n">
-        <v>202107113</v>
+        <v>121021</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3204060907080008</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="H49" s="2" t="n">
+        <v>39638</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 001 RW 010, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Agus</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
@@ -3015,7 +4489,11 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Nani</t>
+        </is>
+      </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
@@ -3024,38 +4502,68 @@
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rima Rianti</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>Rosmawati</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Rosmawati</t>
+        </is>
+      </c>
       <c r="C50" t="n">
-        <v>202107114</v>
+        <v>121022</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3204065105090001</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" s="2" t="n">
+        <v>39945</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 001 RW 014, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Dedi</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
@@ -3065,7 +4573,11 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Kokom Komariah</t>
+        </is>
+      </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
@@ -3074,38 +4586,68 @@
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rizky Nurhakim</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>Saskia Allipa</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Saski</t>
+        </is>
+      </c>
       <c r="C51" t="n">
-        <v>202107115</v>
+        <v>121023</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3204065209090002</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" s="2" t="n">
+        <v>39945</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Kp. Sekebalingbing, RT 002 RW 010, Cikadut, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Enjang Dede Sutardi</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -3115,7 +4657,11 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Noneng Susilawati</t>
+        </is>
+      </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
@@ -3124,38 +4670,68 @@
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Salmah Nurjanah</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>Salsabila Meida</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Salsa</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>202107116</v>
+        <v>121024</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>1672036004090002</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="H52" s="2" t="n">
+        <v>39923</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 002 RW 014, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>SDN Cibentar</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Cece</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
@@ -3165,7 +4741,11 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Sopiah</t>
+        </is>
+      </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
@@ -3174,38 +4754,68 @@
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sipa Nurazkia</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>Siti Nur Amalah</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siti </t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>202107117</v>
+        <v>121025</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3204065708080002</v>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="H53" s="2" t="n">
+        <v>39677</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 001 RW 010, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Ujang Yana</t>
+        </is>
+      </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
@@ -3215,7 +4825,11 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Elih</t>
+        </is>
+      </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
@@ -3224,38 +4838,68 @@
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Yosep Sulaeman</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>Tini Nur Aeni</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tini </t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>202107118</v>
+        <v>121026</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3204064801090002</v>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="H54" s="2" t="n">
+        <v>39455</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 002 RW 011, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Caca</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
@@ -3265,7 +4909,11 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Ani Nurhaeni</t>
+        </is>
+      </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
@@ -3274,38 +4922,68 @@
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Zakiya Zahra Kamila</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>Vicril Nurmulki</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vicril</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>202107119</v>
+        <v>121027</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3204061711080004</v>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="H55" s="2" t="n">
+        <v>39769</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari RT 001 RW 010, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Tatang Suherman</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
@@ -3315,7 +4993,11 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Karyati</t>
+        </is>
+      </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
@@ -3324,38 +5006,68 @@
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Candra Aditya</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>Wanda</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Wanda</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>202107120</v>
+        <v>121028</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>3204060301090004</v>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" s="2" t="n">
+        <v>39816</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 002 RW 014, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Endang</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
@@ -3365,7 +5077,11 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Noneng Supartini</t>
+        </is>
+      </c>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
@@ -3374,38 +5090,68 @@
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amelia</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>Wandi</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Wandi</t>
+        </is>
+      </c>
       <c r="C57" t="n">
-        <v>192007089</v>
+        <v>121029</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>IX</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3204060301090005</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="H57" s="2" t="n">
+        <v>39816</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu, RT 002 RW 014, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Endang</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
@@ -3415,7 +5161,11 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Noneng Supartini</t>
+        </is>
+      </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
@@ -3424,38 +5174,68 @@
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aneng Widahawati</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Yan Yan Sopian</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Yan Yan</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>192007090</v>
+        <v>121030</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IX</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3204062212080002</v>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="H58" s="2" t="n">
+        <v>39804</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Kp. Mande. RT 002 RW 002, Cikadut, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>SDN 009 Cikadut Kota Bandung</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Yayat</t>
+        </is>
+      </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
@@ -3465,7 +5245,11 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Een</t>
+        </is>
+      </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
@@ -3474,38 +5258,68 @@
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Anisa Nazwa Salsabila</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>M. Arya Wangun Jaya</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Arya</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>192007092</v>
+        <v>121031</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IX</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3202312105090001</v>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="H59" s="2" t="n">
+        <v>39954</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari rt, 002 rw. 011, Mekarmanik, Cimenyan. Kabupaten Bandung</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Daso Abdul Nasir</t>
+        </is>
+      </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
@@ -3515,7 +5329,11 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Nurhalimah Tusa'diyah</t>
+        </is>
+      </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
@@ -3524,38 +5342,64 @@
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Citra Lestari</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Agus Ahmad</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Agus</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>192007093</v>
+        <v>120001</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>3204061408070001</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Pagar Alam</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Adin</t>
+        </is>
+      </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
@@ -3565,7 +5409,11 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Ratna</t>
+        </is>
+      </c>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
@@ -3574,38 +5422,64 @@
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dede Hadian</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>Angga Maulana</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Angga</t>
+        </is>
+      </c>
       <c r="C61" t="n">
-        <v>192007094</v>
+        <v>120002</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3204062605070001</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Heri</t>
+        </is>
+      </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
@@ -3615,7 +5489,11 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Oneng</t>
+        </is>
+      </c>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
@@ -3624,38 +5502,64 @@
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jaenal Mutakin</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>Ayu Anggraeni</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ayu</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>192007095</v>
+        <v>120003</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>3204066511070001</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Taryana</t>
+        </is>
+      </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
@@ -3665,7 +5569,11 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Warni</t>
+        </is>
+      </c>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
@@ -3674,38 +5582,64 @@
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jihan</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>Dani Hidayat</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Dani</t>
+        </is>
+      </c>
       <c r="C63" t="n">
-        <v>192007096</v>
+        <v>120004</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>3204061811070003</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>SDN Mekarjaya</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Asep Dadang</t>
+        </is>
+      </c>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
@@ -3715,7 +5649,11 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Kartini</t>
+        </is>
+      </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
@@ -3724,38 +5662,64 @@
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lisnawati</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>Depi</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Depi</t>
+        </is>
+      </c>
       <c r="C64" t="n">
-        <v>192007097</v>
+        <v>120005</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>3204064107080001</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Kp. Cikawari</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Ibo</t>
+        </is>
+      </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
@@ -3765,7 +5729,11 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Elis Iyam</t>
+        </is>
+      </c>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
@@ -3774,38 +5742,64 @@
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lutfi Akbar Hakim</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>Elsa Silviani</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Elsa</t>
+        </is>
+      </c>
       <c r="C65" t="n">
-        <v>192007098</v>
+        <v>120006</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3204345006080003</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Asep Rohmana</t>
+        </is>
+      </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
@@ -3815,7 +5809,11 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Ani Dedeh Setiani</t>
+        </is>
+      </c>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
@@ -3824,38 +5822,64 @@
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nopa</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>Hoerul Anwar</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hoerul</t>
+        </is>
+      </c>
       <c r="C66" t="n">
-        <v>192007099</v>
+        <v>120007</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3204060201080002</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Junaedi</t>
+        </is>
+      </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
@@ -3865,7 +5889,11 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Tita</t>
+        </is>
+      </c>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
@@ -3874,38 +5902,64 @@
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Opa</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>Irvan Mardiansah</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Irvan</t>
+        </is>
+      </c>
       <c r="C67" t="n">
-        <v>192007100</v>
+        <v>120008</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>3204061709070001</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Kp. Singkur</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>SDN Mekarjaya</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Damayanto</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
@@ -3915,7 +5969,11 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Lilis Rohaeni</t>
+        </is>
+      </c>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
@@ -3924,38 +5982,64 @@
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Silvia Ramadani</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Kanila Nopita</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Kanila</t>
+        </is>
+      </c>
       <c r="C68" t="n">
-        <v>192007101</v>
+        <v>120009</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3204065111070001</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Ono</t>
+        </is>
+      </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
@@ -3965,7 +6049,11 @@
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Aminah</t>
+        </is>
+      </c>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
@@ -3974,38 +6062,64 @@
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Siti Nur Asiah</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>Moh. Nur Asoka</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Oka</t>
+        </is>
+      </c>
       <c r="C69" t="n">
-        <v>192007102</v>
+        <v>120010</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>3217060704080013</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Tegallaja</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>SDN 2 Ngamprah</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Aji Agung</t>
+        </is>
+      </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
@@ -4015,7 +6129,11 @@
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Nuryani</t>
+        </is>
+      </c>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
@@ -4024,38 +6142,64 @@
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Syaefoel Ramdani</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>Muhamad Krisna Mustopa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Krisna</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>192007103</v>
+        <v>120011</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3204062008060003</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Kerinjing</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Opang Mustopa</t>
+        </is>
+      </c>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
@@ -4065,7 +6209,11 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Mimin Aminah</t>
+        </is>
+      </c>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
@@ -4074,38 +6222,64 @@
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vivih Wahyuni</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>Opik Saepul Rohman</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Opik</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>192007104</v>
+        <v>120012</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>IX</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>3204061011070004</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Endang</t>
+        </is>
+      </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
@@ -4115,7 +6289,11 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Ai Sari</t>
+        </is>
+      </c>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
@@ -4124,6 +6302,728 @@
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Pitri Yanti</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pitri</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>120013</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3204066109080001</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Cikawari</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Ajang</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Nurhayati</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Rahma Tri Wulan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rahma</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>120014</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3204065704070005</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Cikawari</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>A Suhermanto</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Eneng Ida R</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Reva Nur Afriani</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Reva</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>120015</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3204065104070001</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Kp. Cilaja</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>SDN Arcamanik 2</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Sukmana</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Idah Rosidah</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Rima Rianti</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Rima</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>120016</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3204064806080001</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Ating</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Oneng</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Salmah Nurjanah</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Salmah</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>120017</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3204064802080005</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Kp. Pondok Buah Batu</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Yana Suryana</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>Yayah Pujasari</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sipa Nurazkia</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sipa</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>120018</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3204064309080001</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Tanjung Sakti</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>SDN Cikawari</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Adang</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oneng </t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Yosep Sulaeman</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yosep</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>120019</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3204061007070008</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Kp. Seke Angga</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>SDN Arcamanik 2</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Yana (Alm)</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Iis Nurhayati</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zakiya Zahra Kamila</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mila</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>120020</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3204064801140002</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Arcamanik</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>SDN Arcamanik 1</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Nanang Suryana</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Yanti</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ida Rosida</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ida</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>120021</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3204066707080001</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Kp. Singkur RT. 002 RW. 015, Mekarmanik, Cimenyan, Kabupaten Bandung</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>SDN Mekarjaya</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Mamat Rahmat</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Nunung Komalasari</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
